--- a/Northcourt Test/3-bedrooms_in_Surulere.xlsx
+++ b/Northcourt Test/3-bedrooms_in_Surulere.xlsx
@@ -1,20 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\Untitled Folder\Projects\Northcourt Test\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35FD917F-207E-487B-922D-44B8C1E6DAD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="131">
   <si>
     <t>Address</t>
   </si>
@@ -401,13 +418,19 @@
   </si>
   <si>
     <t>₦2,000,000</t>
+  </si>
+  <si>
+    <t>List of 3-bedroom Flats in Surulere as of 27/04/2023.</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -423,13 +446,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -447,9 +487,7 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -459,18 +497,84 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{684CCCF2-A52B-4865-BC66-9E4DDBB77922}" name="Table1" displayName="Table1" ref="A2:C77" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+  <autoFilter ref="A2:C77" xr:uid="{684CCCF2-A52B-4865-BC66-9E4DDBB77922}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{5EE343F1-7371-4A05-834B-15EDEF97CCF4}" name="Address"/>
+    <tableColumn id="2" xr3:uid="{3094CEFD-A721-4E4C-AC14-757BBA208FCE}" name="Description"/>
+    <tableColumn id="3" xr3:uid="{99B9602F-3FD1-42A8-99B8-AC143CFAA62C}" name="Rent"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -516,7 +620,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -548,9 +652,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -582,6 +704,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -757,344 +897,345 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C75"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="54.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="67.5703125" customWidth="1"/>
+    <col min="2" max="2" width="65" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>39</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>40</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>41</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
         <v>45</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>46</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
       <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
         <v>48</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>9</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>49</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>10</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>50</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>11</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>51</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>12</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>52</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>3</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>53</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>13</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>54</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>7</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>55</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>13</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>56</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>14</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>57</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>15</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>58</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>3</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>59</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>8</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>60</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>16</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>61</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>17</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>62</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>18</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>63</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>19</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>64</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>8</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>65</v>
-      </c>
-      <c r="C28" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29" t="s">
-        <v>66</v>
       </c>
       <c r="C29" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C30" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -1102,494 +1243,517 @@
         <v>67</v>
       </c>
       <c r="C31" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>21</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>68</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>22</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>69</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>8</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>70</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>7</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>71</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>8</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>72</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C37" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>23</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>73</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C38" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
-        <v>7</v>
-      </c>
-      <c r="B38" t="s">
-        <v>74</v>
-      </c>
-      <c r="C38" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>7</v>
       </c>
       <c r="B39" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" t="s">
         <v>75</v>
-      </c>
-      <c r="C39" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
-        <v>6</v>
-      </c>
-      <c r="B40" t="s">
-        <v>76</v>
       </c>
       <c r="C40" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>7</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
         <v>77</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C42" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>24</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>78</v>
-      </c>
-      <c r="C42" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" t="s">
-        <v>13</v>
-      </c>
-      <c r="B43" t="s">
-        <v>79</v>
       </c>
       <c r="C43" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>25</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B45" t="s">
         <v>80</v>
-      </c>
-      <c r="C44" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="s">
-        <v>26</v>
-      </c>
-      <c r="B45" t="s">
-        <v>81</v>
       </c>
       <c r="C45" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>26</v>
+      </c>
+      <c r="B46" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>27</v>
-      </c>
-      <c r="B46" t="s">
-        <v>82</v>
-      </c>
-      <c r="C46" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="s">
-        <v>8</v>
       </c>
       <c r="B47" t="s">
         <v>82</v>
       </c>
       <c r="C47" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>8</v>
       </c>
       <c r="B48" t="s">
+        <v>82</v>
+      </c>
+      <c r="C48" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" t="s">
         <v>83</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C49" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>7</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B50" t="s">
         <v>84</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C50" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="s">
-        <v>8</v>
-      </c>
-      <c r="B50" t="s">
-        <v>85</v>
-      </c>
-      <c r="C50" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>8</v>
       </c>
       <c r="B51" t="s">
+        <v>85</v>
+      </c>
+      <c r="C51" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" t="s">
         <v>86</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C52" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>7</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B53" t="s">
         <v>87</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C53" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>28</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B54" t="s">
         <v>88</v>
-      </c>
-      <c r="C53" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
-        <v>8</v>
-      </c>
-      <c r="B54" t="s">
-        <v>89</v>
       </c>
       <c r="C54" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" t="s">
+        <v>89</v>
+      </c>
+      <c r="C55" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>29</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B56" t="s">
         <v>90</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C56" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
-      <c r="A56" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>8</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B57" t="s">
         <v>91</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C57" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
-      <c r="A57" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>30</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B58" t="s">
         <v>63</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C58" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
-      <c r="A58" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>3</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B59" t="s">
         <v>92</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C59" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
-      <c r="A59" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>28</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B60" t="s">
         <v>50</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C60" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
-      <c r="A60" t="s">
-        <v>8</v>
-      </c>
-      <c r="B60" t="s">
-        <v>93</v>
-      </c>
-      <c r="C60" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>8</v>
       </c>
       <c r="B61" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C61" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>8</v>
       </c>
       <c r="B62" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C62" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="B63" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C63" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>31</v>
+      </c>
+      <c r="B64" t="s">
+        <v>96</v>
+      </c>
+      <c r="C64" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>8</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B65" t="s">
         <v>97</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C65" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
-      <c r="A65" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>32</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B66" t="s">
         <v>98</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C66" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
-      <c r="A66" t="s">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>33</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B67" t="s">
         <v>99</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C67" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
-      <c r="A67" t="s">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>34</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B68" t="s">
         <v>100</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C68" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
-      <c r="A68" t="s">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>35</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B69" t="s">
         <v>101</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C69" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
-      <c r="A69" t="s">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>8</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B70" t="s">
         <v>102</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C70" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
-      <c r="A70" t="s">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>12</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B71" t="s">
         <v>103</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C71" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
-      <c r="A71" t="s">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>36</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B72" t="s">
         <v>104</v>
-      </c>
-      <c r="C71" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" t="s">
-        <v>12</v>
-      </c>
-      <c r="B72" t="s">
-        <v>105</v>
       </c>
       <c r="C72" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>12</v>
+      </c>
+      <c r="B73" t="s">
+        <v>105</v>
+      </c>
+      <c r="C73" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>8</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B74" t="s">
         <v>84</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C74" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
-      <c r="A74" t="s">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>37</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B75" t="s">
         <v>106</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C75" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
-      <c r="A75" t="s">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>38</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B76" t="s">
         <v>107</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C76" t="s">
         <v>115</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>130</v>
+      </c>
+      <c r="B77">
+        <f>COUNTA(B3:B76)</f>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>